--- a/medicine/Pharmacie/Cortisone/Cortisone.xlsx
+++ b/medicine/Pharmacie/Cortisone/Cortisone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La cortisone, au sens biochimique, est une molécule glucocorticoïde naturelle de formule C21H28O5 qui est un métabolite inactif du cortisol, hormone synthétisée par les glandes surrénales. La cortisone n'est pas synthétisée par les surrénales[3]. 
+La cortisone, au sens biochimique, est une molécule glucocorticoïde naturelle de formule C21H28O5 qui est un métabolite inactif du cortisol, hormone synthétisée par les glandes surrénales. La cortisone n'est pas synthétisée par les surrénales. 
 La cortisone, au sens courant, désigne l'hydrocortisone, c'est-à-dire le cortisol, ou un analogue du cortisol.
 Le cortisol est dégradé en cortisone dans les reins par la 11β-hydroxystéroïde deshydrogénase (type 2).
 La cortisone peut être à nouveau transformée en cortisol dans le foie par 11β-hydroxystéroïde deshydrogénase (type 1). Autrefois, il est arrivé que la cortisone (au sens biochimique) soit prescrite comme un pro-médicament qui ne devenait actif que par sa transformation en cortisol par la HSD11B1 hépatique.
@@ -515,7 +527,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortisol est inactivé en cortisone par une enzyme : la 11β-hydroxystéroïde deshydrogénase (type 2), localisée au niveau des cellules principales du tube contourné distal ainsi que du canal collecteur du rein. Le cortisol a un rôle essentiel dans la régulation de certaines grandes fonctions de l'organisme : métabolisme des sucres, les défenses immunitaires, action sur l'inflammation, etc. Chaque individu produit de façon quotidienne du cortisol qui est nécessaire au bon fonctionnement de l'organisme.
 </t>
